--- a/Results/TablesForBook.xlsx
+++ b/Results/TablesForBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason.debacker/repos/RedesigningAging/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60C430-3D44-9745-A16C-BDCA7D45A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8C946-00C0-ED47-8CB7-FA640A6327BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45980" yWindow="760" windowWidth="30500" windowHeight="26980" xr2:uid="{4BA2160B-CE8A-FD43-9C3B-072358C868E3}"/>
+    <workbookView xWindow="45980" yWindow="760" windowWidth="30500" windowHeight="26980" activeTab="1" xr2:uid="{4BA2160B-CE8A-FD43-9C3B-072358C868E3}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_output" sheetId="1" r:id="rId1"/>
@@ -3112,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88E2290-DB2E-2549-8CBF-818095425B2D}">
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14084,8 +14084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83680719-0289-E84B-8A0C-3CBBF77D06FB}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14228,7 +14228,7 @@
         <v>$201B</v>
       </c>
       <c r="K3" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R3),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R3),"$#.0"),"T")</f>
         <v>$8.9T</v>
       </c>
       <c r="L3" s="8" t="str">
@@ -14236,7 +14236,7 @@
         <v>268k</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R3),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R3),"$#.##")</f>
         <v>$507.82</v>
       </c>
       <c r="N3" s="8">
@@ -14267,11 +14267,11 @@
         <v>40</v>
       </c>
       <c r="V3" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R3,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N3)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R3,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N3)</f>
         <v>201.289900032801</v>
       </c>
       <c r="W3" s="8">
-        <f>SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R3)*1000</f>
+        <f>SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N3,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U3,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S3,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T3,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P3,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q3,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R3)*1000</f>
         <v>268.12770050815601</v>
       </c>
     </row>
@@ -14309,7 +14309,7 @@
         <v>$9B</v>
       </c>
       <c r="K4" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R4),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R4),"$#.0"),"T")</f>
         <v>$9.3T</v>
       </c>
       <c r="L4" s="8" t="str">
@@ -14317,7 +14317,7 @@
         <v>391k</v>
       </c>
       <c r="M4" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R4),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R4),"$#.##")</f>
         <v>-$5.25</v>
       </c>
       <c r="N4" s="8">
@@ -14348,11 +14348,11 @@
         <v>40</v>
       </c>
       <c r="V4" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R4,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N4)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R4,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N4)</f>
         <v>9.0672975647574798</v>
       </c>
       <c r="W4" s="8">
-        <f t="array" ref="W4">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R4)*1000</f>
+        <f t="array" ref="W4">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N4,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U4,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S4,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T4,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P4,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q4,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R4)*1000</f>
         <v>391.367610078864</v>
       </c>
     </row>
@@ -14390,7 +14390,7 @@
         <v>$236B</v>
       </c>
       <c r="K5" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R5),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R5),"$#.0"),"T")</f>
         <v>$13.6T</v>
       </c>
       <c r="L5" s="8" t="str">
@@ -14398,7 +14398,7 @@
         <v>2.4M</v>
       </c>
       <c r="M5" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R5),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R5),"$#.##")</f>
         <v>-$873.77</v>
       </c>
       <c r="N5" s="8">
@@ -14429,11 +14429,11 @@
         <v>40</v>
       </c>
       <c r="V5" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R5,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N5)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R5,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N5)</f>
         <v>236.39943594180201</v>
       </c>
       <c r="W5" s="8">
-        <f t="array" ref="W5">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R5)*1000</f>
+        <f t="array" ref="W5">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N5,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U5,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S5,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T5,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P5,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q5,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R5)*1000</f>
         <v>2386.2510908493</v>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
         <v>$50B</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R6),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R6),"$#.0"),"T")</f>
         <v>$3.2T</v>
       </c>
       <c r="L6" s="8" t="str">
@@ -14479,7 +14479,7 @@
         <v>592k</v>
       </c>
       <c r="M6" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R6),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R6),"$#.##")</f>
         <v>-$247.15</v>
       </c>
       <c r="N6" s="8">
@@ -14510,11 +14510,11 @@
         <v>40</v>
       </c>
       <c r="V6" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R6,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N6)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R6,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N6)</f>
         <v>49.515117478644598</v>
       </c>
       <c r="W6" s="8">
-        <f t="array" ref="W6">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R6)*1000</f>
+        <f t="array" ref="W6">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N6,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U6,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S6,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T6,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P6,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q6,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R6)*1000</f>
         <v>592.22110078507797</v>
       </c>
     </row>
@@ -14550,7 +14550,7 @@
         <v>$40B</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R7),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R7),"$#.0"),"T")</f>
         <v>$2.4T</v>
       </c>
       <c r="L7" s="8" t="str">
@@ -14558,7 +14558,7 @@
         <v>275k</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R7),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R7),"$#.##")</f>
         <v>-$19.85</v>
       </c>
       <c r="N7" s="8">
@@ -14587,11 +14587,11 @@
         <v>65</v>
       </c>
       <c r="V7" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R7,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N7)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R7,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N7)</f>
         <v>40.442704486427402</v>
       </c>
       <c r="W7" s="8">
-        <f t="array" ref="W7">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R7)*1000</f>
+        <f t="array" ref="W7">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N7,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U7,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S7,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T7,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P7,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q7,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R7)*1000</f>
         <v>275.208442192635</v>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
         <v>$79B</v>
       </c>
       <c r="K8" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R8),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R8),"$#.0"),"T")</f>
         <v>$4.2T</v>
       </c>
       <c r="L8" s="8" t="str">
@@ -14629,7 +14629,7 @@
         <v>460k</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R8),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R8),"$#.##")</f>
         <v>$3.94</v>
       </c>
       <c r="N8" s="8">
@@ -14657,11 +14657,11 @@
         <v>65</v>
       </c>
       <c r="V8" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R8,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N8)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R8,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N8)</f>
         <v>78.713204045629894</v>
       </c>
       <c r="W8" s="8">
-        <f t="array" ref="W8">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R8)*1000</f>
+        <f t="array" ref="W8">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N8,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U8,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S8,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T8,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P8,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q8,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R8)*1000</f>
         <v>460.19280090283297</v>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
         <v>$505B</v>
       </c>
       <c r="K9" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R9),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R9),"$#.0"),"T")</f>
         <v>$22.2T</v>
       </c>
       <c r="L9" s="8" t="str">
@@ -14705,7 +14705,7 @@
         <v>1.1M</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R9),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R9),"$#.##")</f>
         <v>$954.97</v>
       </c>
       <c r="N9" s="8">
@@ -14736,11 +14736,11 @@
         <v>40</v>
       </c>
       <c r="V9" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R9,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N9)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R9,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N9)</f>
         <v>505.03883610934298</v>
       </c>
       <c r="W9" s="8">
-        <f t="array" ref="W9">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R9)*1000</f>
+        <f t="array" ref="W9">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N9,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U9,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S9,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T9,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P9,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q9,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R9)*1000</f>
         <v>1110.6653561943201</v>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
         <v>$523B</v>
       </c>
       <c r="K11" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R11),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R11),"$#.0"),"T")</f>
         <v>$23.3T</v>
       </c>
       <c r="L11" s="8" t="str">
@@ -14825,7 +14825,7 @@
         <v>1.3M</v>
       </c>
       <c r="M11" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R11),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R11),"$#.##")</f>
         <v>$936.43</v>
       </c>
       <c r="N11" s="8">
@@ -14856,11 +14856,11 @@
         <v>40</v>
       </c>
       <c r="V11" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R11,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N11)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R11,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N11)</f>
         <v>522.61022569606598</v>
       </c>
       <c r="W11" s="8">
-        <f t="array" ref="W11">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R11)*1000</f>
+        <f t="array" ref="W11">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N11,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U11,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S11,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T11,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P11,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q11,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R11)*1000</f>
         <v>1331.72128642234</v>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
         <v>$408B</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R13),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R13),"$#.0"),"T")</f>
         <v>$27.1T</v>
       </c>
       <c r="L13" s="8" t="str">
@@ -14946,7 +14946,7 @@
         <v>1.7M</v>
       </c>
       <c r="M13" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R13),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R13),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N13" s="8">
@@ -14977,11 +14977,11 @@
         <v>40</v>
       </c>
       <c r="V13" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R13,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N13)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R13,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N13)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W13" s="8">
-        <f t="array" ref="W13">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R13)*1000</f>
+        <f t="array" ref="W13">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N13,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U13,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S13,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T13,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P13,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q13,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R13)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -15019,7 +15019,7 @@
         <v>$326B</v>
       </c>
       <c r="K14" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R14),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R14),"$#.0"),"T")</f>
         <v>$14.3T</v>
       </c>
       <c r="L14" s="8" t="str">
@@ -15027,7 +15027,7 @@
         <v>1.2M</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R14),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R14),"$#.##")</f>
         <v>$327.93</v>
       </c>
       <c r="N14" s="8">
@@ -15058,11 +15058,11 @@
         <v>65</v>
       </c>
       <c r="V14" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R14,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N14)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R14,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N14)</f>
         <v>326.36233150701401</v>
       </c>
       <c r="W14" s="8">
-        <f t="array" ref="W14">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R14)*1000</f>
+        <f t="array" ref="W14">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N14,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U14,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S14,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T14,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P14,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q14,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R14)*1000</f>
         <v>1178.3826528464701</v>
       </c>
     </row>
@@ -15100,7 +15100,7 @@
         <v>$2.0T</v>
       </c>
       <c r="K15" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R15),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R15),"$#.0"),"T")</f>
         <v>$101.9T</v>
       </c>
       <c r="L15" s="8" t="str">
@@ -15108,7 +15108,7 @@
         <v>6.9M</v>
       </c>
       <c r="M15" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R15),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R15),"$#.##")</f>
         <v>$2211.12</v>
       </c>
       <c r="N15" s="8">
@@ -15138,11 +15138,11 @@
         <v>40</v>
       </c>
       <c r="V15" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R15,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N15)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R15,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N15)</f>
         <v>2027.97280329624</v>
       </c>
       <c r="W15" s="8">
-        <f t="array" ref="W15">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R15)*1000</f>
+        <f t="array" ref="W15">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N15,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U15,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S15,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T15,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P15,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q15,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R15)*1000</f>
         <v>6911.1497444073802</v>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
         <v>$1.7T</v>
       </c>
       <c r="K16" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R16),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R16),"$#.0"),"T")</f>
         <v>$72.8T</v>
       </c>
       <c r="L16" s="8" t="str">
@@ -15188,7 +15188,7 @@
         <v>5.6M</v>
       </c>
       <c r="M16" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R16),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R16),"$#.##")</f>
         <v>$1894.74</v>
       </c>
       <c r="N16" s="8">
@@ -15218,11 +15218,11 @@
         <v>65</v>
       </c>
       <c r="V16" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R16,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N16)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R16,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N16)</f>
         <v>1696.76471092524</v>
       </c>
       <c r="W16" s="8">
-        <f t="array" ref="W16">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R16)*1000</f>
+        <f t="array" ref="W16">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N16,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U16,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S16,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T16,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P16,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q16,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R16)*1000</f>
         <v>5623.6576150313404</v>
       </c>
     </row>
@@ -15276,7 +15276,7 @@
         <v>40</v>
       </c>
       <c r="V17" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U17,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S17,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T17,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P17,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q17,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R17,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N17)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U17,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S17,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T17,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P17,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q17,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R17,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N17)</f>
         <v>0</v>
       </c>
       <c r="W17" s="35"/>
@@ -15315,7 +15315,7 @@
         <v>$4.0T</v>
       </c>
       <c r="K18" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R18),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R18),"$#.0"),"T")</f>
         <v>$83.6T</v>
       </c>
       <c r="L18" s="8" t="str">
@@ -15323,7 +15323,7 @@
         <v>12.9M</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R18),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R18),"$#.##")</f>
         <v>$4048.2</v>
       </c>
       <c r="N18" s="8">
@@ -15353,11 +15353,11 @@
         <v>40</v>
       </c>
       <c r="V18" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R18,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N18)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R18,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N18)</f>
         <v>3951.07712146837</v>
       </c>
       <c r="W18" s="8">
-        <f t="array" ref="W18">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R18)*1000</f>
+        <f t="array" ref="W18">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N18,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U18,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S18,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T18,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P18,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q18,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R18)*1000</f>
         <v>12900.8351694907</v>
       </c>
     </row>
@@ -15410,7 +15410,7 @@
         <v>40</v>
       </c>
       <c r="V19" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U19,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S19,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T19,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P19,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q19,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R19,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N19)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U19,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S19,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T19,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P19,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q19,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R19,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N19)</f>
         <v>0</v>
       </c>
       <c r="W19" s="35"/>
@@ -15445,7 +15445,7 @@
         <v>$B</v>
       </c>
       <c r="K20" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R20),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R20),"$#.0"),"T")</f>
         <v>$.0T</v>
       </c>
       <c r="L20" s="8" t="str">
@@ -15453,7 +15453,7 @@
         <v>k</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R20),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R20),"$#.##")</f>
         <v>$.</v>
       </c>
       <c r="N20" s="8">
@@ -15483,11 +15483,11 @@
         <v>40</v>
       </c>
       <c r="V20" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R20,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N20)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R20,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N20)</f>
         <v>0</v>
       </c>
       <c r="W20" s="8">
-        <f t="array" ref="W20">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R20)*1000</f>
+        <f t="array" ref="W20">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N20,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U20,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S20,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T20,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P20,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q20,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R20)*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
         <v>$857B</v>
       </c>
       <c r="K21" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R21),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R21),"$#.0"),"T")</f>
         <v>$47.1T</v>
       </c>
       <c r="L21" s="8" t="str">
@@ -15529,7 +15529,7 @@
         <v>3.1M</v>
       </c>
       <c r="M21" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R21),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R21),"$#.##")</f>
         <v>$957.09</v>
       </c>
       <c r="N21" s="8">
@@ -15559,11 +15559,11 @@
         <v>40</v>
       </c>
       <c r="V21" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R21,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N21)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R21,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N21)</f>
         <v>857.09417997486105</v>
       </c>
       <c r="W21" s="8">
-        <f t="array" ref="W21">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R21)*1000</f>
+        <f t="array" ref="W21">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R21)*1000</f>
         <v>3127.9636949866099</v>
       </c>
     </row>
@@ -15612,7 +15612,7 @@
         <v>40</v>
       </c>
       <c r="V22" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U22,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S22,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T22,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P22,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q22,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R22,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N22)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U22,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S22,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T22,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P22,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q22,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R22,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N22)</f>
         <v>0</v>
       </c>
       <c r="W22" s="35"/>
@@ -15645,7 +15645,7 @@
         <v>$857B</v>
       </c>
       <c r="K23" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$P$2:$P$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R21),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$P$2:$P$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N21,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U21,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S21,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T21,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P21,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q21,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R21),"$#.0"),"T")</f>
         <v>$28.4T</v>
       </c>
       <c r="L23" s="8" t="str">
@@ -15653,7 +15653,7 @@
         <v>3.1M</v>
       </c>
       <c r="M23" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N23,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R23),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N23,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R23),"$#.##")</f>
         <v>$957.09</v>
       </c>
       <c r="N23" s="8">
@@ -15683,11 +15683,11 @@
         <v>40</v>
       </c>
       <c r="V23" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R23,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N23)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R23,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N23)</f>
         <v>857.09417997486105</v>
       </c>
       <c r="W23" s="8">
-        <f t="array" ref="W23">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N23,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R23)*1000</f>
+        <f t="array" ref="W23">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N23,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U23,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S23,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T23,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P23,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q23,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R23)*1000</f>
         <v>3127.9636949866099</v>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
         <v>$137B</v>
       </c>
       <c r="K24" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R24),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R24),"$#.0"),"T")</f>
         <v>$7.8T</v>
       </c>
       <c r="L24" s="8" t="str">
@@ -15727,7 +15727,7 @@
         <v>1.4M</v>
       </c>
       <c r="M24" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R24),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R24),"$#.##")</f>
         <v>-$489.4</v>
       </c>
       <c r="N24" s="8">
@@ -15758,11 +15758,11 @@
         <v>40</v>
       </c>
       <c r="V24" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R24,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N24)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R24,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N24)</f>
         <v>137.08382162448899</v>
       </c>
       <c r="W24" s="8">
-        <f t="array" ref="W24">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R24)*1000</f>
+        <f t="array" ref="W24">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N24,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U24,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S24,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T24,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P24,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q24,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R24)*1000</f>
         <v>1358.54213028357</v>
       </c>
     </row>
@@ -15794,7 +15794,7 @@
         <v>$252B</v>
       </c>
       <c r="K25" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R25),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R25),"$#.0"),"T")</f>
         <v>$10.6T</v>
       </c>
       <c r="L25" s="8" t="str">
@@ -15802,7 +15802,7 @@
         <v>k</v>
       </c>
       <c r="M25" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R25),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R25),"$#.##")</f>
         <v>$875.24</v>
       </c>
       <c r="N25" s="8">
@@ -15833,11 +15833,11 @@
         <v>40</v>
       </c>
       <c r="V25" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R25,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N25)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R25,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N25)</f>
         <v>252.272534999501</v>
       </c>
       <c r="W25" s="8">
-        <f t="array" ref="W25">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R25)*1000</f>
+        <f t="array" ref="W25">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N25,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U25,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S25,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T25,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P25,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q25,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R25)*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -15869,7 +15869,7 @@
         <v>-$21B</v>
       </c>
       <c r="K26" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R26),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R26),"$#.0"),"T")</f>
         <v>$8.0T</v>
       </c>
       <c r="L26" s="8" t="str">
@@ -15877,7 +15877,7 @@
         <v>365k</v>
       </c>
       <c r="M26" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R26),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R26),"$#.##")</f>
         <v>-$89.29</v>
       </c>
       <c r="N26" s="8">
@@ -15908,11 +15908,11 @@
         <v>40</v>
       </c>
       <c r="V26" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R26,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N26)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R26,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N26)</f>
         <v>-20.679366642440598</v>
       </c>
       <c r="W26" s="8">
-        <f t="array" ref="W26">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R26)*1000</f>
+        <f t="array" ref="W26">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N26,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U26,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S26,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T26,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P26,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q26,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R26)*1000</f>
         <v>364.63356013707801</v>
       </c>
     </row>
@@ -15938,7 +15938,7 @@
         <v>$22B</v>
       </c>
       <c r="K27" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R27),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R27),"$#.0"),"T")</f>
         <v>$1.8T</v>
       </c>
       <c r="L27" s="8" t="str">
@@ -15946,7 +15946,7 @@
         <v>349k</v>
       </c>
       <c r="M27" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R27),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R27),"$#.##")</f>
         <v>-$170.95</v>
       </c>
       <c r="N27" s="8">
@@ -15976,11 +15976,11 @@
         <v>40</v>
       </c>
       <c r="V27" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R27,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N27)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R27,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N27)</f>
         <v>21.616460009132801</v>
       </c>
       <c r="W27" s="8">
-        <f t="array" ref="W27">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R27)*1000</f>
+        <f t="array" ref="W27">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N27,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U27,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S27,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T27,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P27,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q27,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R27)*1000</f>
         <v>348.910629844732</v>
       </c>
     </row>
@@ -16006,7 +16006,7 @@
         <v>$236B</v>
       </c>
       <c r="K28" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R28),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R28),"$#.0"),"T")</f>
         <v>$9.9T</v>
       </c>
       <c r="L28" s="8" t="str">
@@ -16014,7 +16014,7 @@
         <v>k</v>
       </c>
       <c r="M28" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R28),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R28),"$#.##")</f>
         <v>$818.1</v>
       </c>
       <c r="N28" s="8">
@@ -16044,11 +16044,11 @@
         <v>40</v>
       </c>
       <c r="V28" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R28,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N28)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R28,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N28)</f>
         <v>235.769463877053</v>
       </c>
       <c r="W28" s="8">
-        <f t="array" ref="W28">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R28)*1000</f>
+        <f t="array" ref="W28">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N28,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U28,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S28,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T28,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P28,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q28,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R28)*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
         <v>-$21B</v>
       </c>
       <c r="K29" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R29),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R29),"$#.0"),"T")</f>
         <v>$8.7T</v>
       </c>
       <c r="L29" s="8" t="str">
@@ -16082,7 +16082,7 @@
         <v>394k</v>
       </c>
       <c r="M29" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R29),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R29),"$#.##")</f>
         <v>-$91.44</v>
       </c>
       <c r="N29" s="8">
@@ -16112,11 +16112,11 @@
         <v>40</v>
       </c>
       <c r="V29" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R29,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N29)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R29,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N29)</f>
         <v>-20.8515941594715</v>
       </c>
       <c r="W29" s="8">
-        <f t="array" ref="W29">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R29)*1000</f>
+        <f t="array" ref="W29">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N29,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U29,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S29,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T29,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P29,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q29,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R29)*1000</f>
         <v>393.80424494804697</v>
       </c>
     </row>
@@ -16142,7 +16142,7 @@
         <v>$B</v>
       </c>
       <c r="K30" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R30),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R30),"$#.0"),"T")</f>
         <v>$.0T</v>
       </c>
       <c r="L30" s="8" t="str">
@@ -16150,7 +16150,7 @@
         <v>k</v>
       </c>
       <c r="M30" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R30),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R30),"$#.##")</f>
         <v>$.</v>
       </c>
       <c r="N30" s="8">
@@ -16178,11 +16178,11 @@
         <v>40</v>
       </c>
       <c r="V30" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R30,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N30)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R30,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N30)</f>
         <v>0</v>
       </c>
       <c r="W30" s="8">
-        <f t="array" ref="W30">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R30)*1000</f>
+        <f t="array" ref="W30">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N30,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U30,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S30,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T30,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P30,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q30,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R30)*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -16214,7 +16214,7 @@
         <v>$B</v>
       </c>
       <c r="K31" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R31),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R31),"$#.0"),"T")</f>
         <v>$.0T</v>
       </c>
       <c r="L31" s="8" t="str">
@@ -16222,7 +16222,7 @@
         <v>k</v>
       </c>
       <c r="M31" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R31),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R31),"$#.##")</f>
         <v>$.</v>
       </c>
       <c r="N31" s="8">
@@ -16253,11 +16253,11 @@
         <v>40</v>
       </c>
       <c r="V31" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R31,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N31)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R31,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N31)</f>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f t="array" ref="W31">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R31)*1000</f>
+        <f t="array" ref="W31">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N31,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U31,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S31,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T31,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P31,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q31,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R31)*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -16289,7 +16289,7 @@
         <v>$408B</v>
       </c>
       <c r="K32" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R32),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R32),"$#.0"),"T")</f>
         <v>$14.6T</v>
       </c>
       <c r="L32" s="8" t="str">
@@ -16297,7 +16297,7 @@
         <v>1.7M</v>
       </c>
       <c r="M32" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R32),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R32),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N32" s="8">
@@ -16328,11 +16328,11 @@
         <v>40</v>
       </c>
       <c r="V32" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R32,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N32)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R32,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N32)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W32" s="8">
-        <f t="array" ref="W32">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R32)*1000</f>
+        <f t="array" ref="W32">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N32,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U32,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S32,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T32,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P32,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q32,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R32)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16364,7 +16364,7 @@
         <v>$408B</v>
       </c>
       <c r="K33" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R33),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R33),"$#.0"),"T")</f>
         <v>$8.3T</v>
       </c>
       <c r="L33" s="8" t="str">
@@ -16372,7 +16372,7 @@
         <v>1.7M</v>
       </c>
       <c r="M33" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R33),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R33),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N33" s="8">
@@ -16403,11 +16403,11 @@
         <v>40</v>
       </c>
       <c r="V33" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R33,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N33)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R33,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N33)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W33" s="8">
-        <f t="array" ref="W33">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R33)*1000</f>
+        <f t="array" ref="W33">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N33,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U33,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S33,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T33,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P33,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q33,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R33)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
         <v>$408B</v>
       </c>
       <c r="K34" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R34),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R34),"$#.0"),"T")</f>
         <v>$5.0T</v>
       </c>
       <c r="L34" s="8" t="str">
@@ -16447,7 +16447,7 @@
         <v>1.7M</v>
       </c>
       <c r="M34" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R34),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R34),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N34" s="8">
@@ -16478,11 +16478,11 @@
         <v>40</v>
       </c>
       <c r="V34" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R34,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N34)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R34,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N34)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W34" s="8">
-        <f t="array" ref="W34">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R34)*1000</f>
+        <f t="array" ref="W34">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N34,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U34,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S34,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T34,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P34,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q34,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R34)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16556,7 +16556,7 @@
         <v>$408B</v>
       </c>
       <c r="K49" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R49),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R49),"$#.0"),"T")</f>
         <v>$53.3T</v>
       </c>
       <c r="L49" s="8" t="str">
@@ -16564,7 +16564,7 @@
         <v>1.7M</v>
       </c>
       <c r="M49" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R49),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R49),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N49" s="8">
@@ -16595,11 +16595,11 @@
         <v>40</v>
       </c>
       <c r="V49" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R49)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R49)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W49" s="8">
-        <f t="array" ref="W49">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R49)*1000</f>
+        <f t="array" ref="W49">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N49,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U49,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S49,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T49,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P49,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q49,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R49)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16631,7 +16631,7 @@
         <v>$408B</v>
       </c>
       <c r="K50" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R50),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R50),"$#.0"),"T")</f>
         <v>$27.1T</v>
       </c>
       <c r="L50" s="8" t="str">
@@ -16639,7 +16639,7 @@
         <v>1.7M</v>
       </c>
       <c r="M50" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R50),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R50),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N50" s="8">
@@ -16670,11 +16670,11 @@
         <v>40</v>
       </c>
       <c r="V50" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R50)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R50)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W50" s="8">
-        <f t="array" ref="W50">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R50)*1000</f>
+        <f t="array" ref="W50">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N50,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U50,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S50,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T50,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P50,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q50,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R50)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16706,7 +16706,7 @@
         <v>$408B</v>
       </c>
       <c r="K51" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R51),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R51),"$#.0"),"T")</f>
         <v>$14.6T</v>
       </c>
       <c r="L51" s="8" t="str">
@@ -16714,7 +16714,7 @@
         <v>1.7M</v>
       </c>
       <c r="M51" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R51),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R51),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N51" s="8">
@@ -16745,11 +16745,11 @@
         <v>40</v>
       </c>
       <c r="V51" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R51)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R51)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W51" s="8">
-        <f t="array" ref="W51">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R51)*1000</f>
+        <f t="array" ref="W51">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N51,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U51,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S51,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T51,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P51,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q51,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R51)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
         <v>$408B</v>
       </c>
       <c r="K52" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R52),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R52),"$#.0"),"T")</f>
         <v>$8.3T</v>
       </c>
       <c r="L52" s="8" t="str">
@@ -16789,7 +16789,7 @@
         <v>1.7M</v>
       </c>
       <c r="M52" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R52),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R52),"$#.##")</f>
         <v>$425.39</v>
       </c>
       <c r="N52" s="8">
@@ -16820,11 +16820,11 @@
         <v>40</v>
       </c>
       <c r="V52" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R52)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R52)</f>
         <v>408.38261914938897</v>
       </c>
       <c r="W52" s="8">
-        <f t="array" ref="W52">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R52)*1000</f>
+        <f t="array" ref="W52">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N52,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U52,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S52,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T52,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P52,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q52,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R52)*1000</f>
         <v>1723.1994507107499</v>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
         <v>$201B</v>
       </c>
       <c r="K53" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R53),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R53),"$#.0"),"T")</f>
         <v>$16.1T</v>
       </c>
       <c r="L53" s="8" t="str">
@@ -16864,7 +16864,7 @@
         <v>268k</v>
       </c>
       <c r="M53" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R53),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R53),"$#.##")</f>
         <v>$507.82</v>
       </c>
       <c r="N53" s="8">
@@ -16895,11 +16895,11 @@
         <v>40</v>
       </c>
       <c r="V53" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R53)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R53)</f>
         <v>201.289900032801</v>
       </c>
       <c r="W53" s="8">
-        <f t="array" ref="W53">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R53)*1000</f>
+        <f t="array" ref="W53">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N53,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U53,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S53,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T53,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P53,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q53,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R53)*1000</f>
         <v>268.12770050815601</v>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
         <v>$201B</v>
       </c>
       <c r="K54" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R54),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R54),"$#.0"),"T")</f>
         <v>$8.9T</v>
       </c>
       <c r="L54" s="8" t="str">
@@ -16939,7 +16939,7 @@
         <v>268k</v>
       </c>
       <c r="M54" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R54),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R54),"$#.##")</f>
         <v>$507.82</v>
       </c>
       <c r="N54" s="8">
@@ -16970,11 +16970,11 @@
         <v>40</v>
       </c>
       <c r="V54" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R54)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R54)</f>
         <v>201.289900032801</v>
       </c>
       <c r="W54" s="8">
-        <f t="array" ref="W54">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R54)*1000</f>
+        <f t="array" ref="W54">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N54,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U54,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S54,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T54,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P54,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q54,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R54)*1000</f>
         <v>268.12770050815601</v>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
         <v>$201B</v>
       </c>
       <c r="K55" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R55),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R55),"$#.0"),"T")</f>
         <v>$5.2T</v>
       </c>
       <c r="L55" s="8" t="str">
@@ -17014,7 +17014,7 @@
         <v>268k</v>
       </c>
       <c r="M55" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R55),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R55),"$#.##")</f>
         <v>$507.82</v>
       </c>
       <c r="N55" s="8">
@@ -17045,11 +17045,11 @@
         <v>40</v>
       </c>
       <c r="V55" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R55)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R55)</f>
         <v>201.289900032801</v>
       </c>
       <c r="W55" s="8">
-        <f t="array" ref="W55">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R55)*1000</f>
+        <f t="array" ref="W55">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N55,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U55,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S55,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T55,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P55,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q55,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R55)*1000</f>
         <v>268.12770050815601</v>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
         <v>$201B</v>
       </c>
       <c r="K56" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R56),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R56),"$#.0"),"T")</f>
         <v>$3.2T</v>
       </c>
       <c r="L56" s="8" t="str">
@@ -17089,7 +17089,7 @@
         <v>268k</v>
       </c>
       <c r="M56" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R56),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R56),"$#.##")</f>
         <v>$507.82</v>
       </c>
       <c r="N56" s="8">
@@ -17120,11 +17120,11 @@
         <v>40</v>
       </c>
       <c r="V56" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R56)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R56)</f>
         <v>201.289900032801</v>
       </c>
       <c r="W56" s="8">
-        <f t="array" ref="W56">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R56)*1000</f>
+        <f t="array" ref="W56">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N56,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U56,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S56,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T56,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P56,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q56,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R56)*1000</f>
         <v>268.12770050815601</v>
       </c>
     </row>
@@ -17156,7 +17156,7 @@
         <v>-$7B</v>
       </c>
       <c r="K57" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R57),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R57),"$#.0"),"T")</f>
         <v>$19.5T</v>
       </c>
       <c r="L57" s="8" t="str">
@@ -17164,7 +17164,7 @@
         <v>391k</v>
       </c>
       <c r="M57" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R57),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R57),"$#.##")</f>
         <v>-$60.7</v>
       </c>
       <c r="N57" s="8">
@@ -17195,11 +17195,11 @@
         <v>40</v>
       </c>
       <c r="V57" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R57)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R57)</f>
         <v>-6.9483302426494404</v>
       </c>
       <c r="W57" s="8">
-        <f t="array" ref="W57">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R57)*1000</f>
+        <f t="array" ref="W57">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N57,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U57,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S57,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T57,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P57,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q57,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R57)*1000</f>
         <v>391.367610078864</v>
       </c>
     </row>
@@ -17231,7 +17231,7 @@
         <v>-$7B</v>
       </c>
       <c r="K58" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R58),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R58),"$#.0"),"T")</f>
         <v>$8.6T</v>
       </c>
       <c r="L58" s="8" t="str">
@@ -17239,7 +17239,7 @@
         <v>391k</v>
       </c>
       <c r="M58" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R58),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R58),"$#.##")</f>
         <v>-$60.7</v>
       </c>
       <c r="N58" s="8">
@@ -17270,11 +17270,11 @@
         <v>40</v>
       </c>
       <c r="V58" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R58)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R58)</f>
         <v>-6.9483302426494404</v>
       </c>
       <c r="W58" s="8">
-        <f t="array" ref="W58">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R58)*1000</f>
+        <f t="array" ref="W58">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N58,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U58,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S58,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T58,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P58,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q58,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R58)*1000</f>
         <v>391.367610078864</v>
       </c>
     </row>
@@ -17306,7 +17306,7 @@
         <v>-$7B</v>
       </c>
       <c r="K59" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R59),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R59),"$#.0"),"T")</f>
         <v>$3.9T</v>
       </c>
       <c r="L59" s="8" t="str">
@@ -17314,7 +17314,7 @@
         <v>391k</v>
       </c>
       <c r="M59" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R59),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R59),"$#.##")</f>
         <v>-$60.7</v>
       </c>
       <c r="N59" s="8">
@@ -17345,11 +17345,11 @@
         <v>40</v>
       </c>
       <c r="V59" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R59)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R59)</f>
         <v>-6.9483302426494404</v>
       </c>
       <c r="W59" s="8">
-        <f t="array" ref="W59">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R59)*1000</f>
+        <f t="array" ref="W59">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N59,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U59,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S59,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T59,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P59,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q59,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R59)*1000</f>
         <v>391.367610078864</v>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
         <v>-$7B</v>
       </c>
       <c r="K60" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R60),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R60),"$#.0"),"T")</f>
         <v>$1.8T</v>
       </c>
       <c r="L60" s="8" t="str">
@@ -17389,7 +17389,7 @@
         <v>391k</v>
       </c>
       <c r="M60" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R60),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R60),"$#.##")</f>
         <v>-$60.7</v>
       </c>
       <c r="N60" s="8">
@@ -17420,11 +17420,11 @@
         <v>40</v>
       </c>
       <c r="V60" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R60)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R60)</f>
         <v>-6.9483302426494404</v>
       </c>
       <c r="W60" s="8">
-        <f t="array" ref="W60">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R60)*1000</f>
+        <f t="array" ref="W60">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N60,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U60,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S60,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T60,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P60,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q60,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R60)*1000</f>
         <v>391.367610078864</v>
       </c>
     </row>
@@ -17456,7 +17456,7 @@
         <v>$326B</v>
       </c>
       <c r="K61" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R61),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R61),"$#.0"),"T")</f>
         <v>$26.0T</v>
       </c>
       <c r="L61" s="8" t="str">
@@ -17464,7 +17464,7 @@
         <v>1.2M</v>
       </c>
       <c r="M61" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R61),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R61),"$#.##")</f>
         <v>$327.93</v>
       </c>
       <c r="N61" s="8">
@@ -17495,11 +17495,11 @@
         <v>65</v>
       </c>
       <c r="V61" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R61)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R61)</f>
         <v>326.36233150701401</v>
       </c>
       <c r="W61" s="8">
-        <f t="array" ref="W61">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R61)*1000</f>
+        <f t="array" ref="W61">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N61,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U61,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S61,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T61,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P61,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q61,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R61)*1000</f>
         <v>1178.3826528464701</v>
       </c>
     </row>
@@ -17531,7 +17531,7 @@
         <v>$326B</v>
       </c>
       <c r="K62" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R62),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R62),"$#.0"),"T")</f>
         <v>$14.3T</v>
       </c>
       <c r="L62" s="8" t="str">
@@ -17539,7 +17539,7 @@
         <v>1.2M</v>
       </c>
       <c r="M62" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R62),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R62),"$#.##")</f>
         <v>$327.93</v>
       </c>
       <c r="N62" s="8">
@@ -17570,11 +17570,11 @@
         <v>65</v>
       </c>
       <c r="V62" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R62)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R62)</f>
         <v>326.36233150701401</v>
       </c>
       <c r="W62" s="8">
-        <f t="array" ref="W62">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R62)*1000</f>
+        <f t="array" ref="W62">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N62,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U62,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S62,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T62,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P62,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q62,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R62)*1000</f>
         <v>1178.3826528464701</v>
       </c>
     </row>
@@ -17606,7 +17606,7 @@
         <v>$326B</v>
       </c>
       <c r="K63" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R63),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R63),"$#.0"),"T")</f>
         <v>$8.4T</v>
       </c>
       <c r="L63" s="8" t="str">
@@ -17614,7 +17614,7 @@
         <v>1.2M</v>
       </c>
       <c r="M63" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R63),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R63),"$#.##")</f>
         <v>$327.93</v>
       </c>
       <c r="N63" s="8">
@@ -17645,11 +17645,11 @@
         <v>65</v>
       </c>
       <c r="V63" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R63)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R63)</f>
         <v>326.36233150701401</v>
       </c>
       <c r="W63" s="8">
-        <f t="array" ref="W63">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R63)*1000</f>
+        <f t="array" ref="W63">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N63,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U63,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S63,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T63,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P63,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q63,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R63)*1000</f>
         <v>1178.3826528464701</v>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
         <v>$326B</v>
       </c>
       <c r="K64" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R64),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R64),"$#.0"),"T")</f>
         <v>$5.2T</v>
       </c>
       <c r="L64" s="8" t="str">
@@ -17689,7 +17689,7 @@
         <v>1.2M</v>
       </c>
       <c r="M64" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R64),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R64),"$#.##")</f>
         <v>$327.93</v>
       </c>
       <c r="N64" s="8">
@@ -17720,11 +17720,11 @@
         <v>65</v>
       </c>
       <c r="V64" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R64)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R64)</f>
         <v>326.36233150701401</v>
       </c>
       <c r="W64" s="8">
-        <f t="array" ref="W64">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R64)*1000</f>
+        <f t="array" ref="W64">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N64,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U64,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S64,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T64,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P64,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q64,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R64)*1000</f>
         <v>1178.3826528464701</v>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
         <v>$40B</v>
       </c>
       <c r="K65" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R65),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R65),"$#.0"),"T")</f>
         <v>$4.3T</v>
       </c>
       <c r="L65" s="8" t="str">
@@ -17764,7 +17764,7 @@
         <v>275k</v>
       </c>
       <c r="M65" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R65),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R65),"$#.##")</f>
         <v>-$19.85</v>
       </c>
       <c r="N65" s="8">
@@ -17793,11 +17793,11 @@
         <v>65</v>
       </c>
       <c r="V65" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R65)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R65)</f>
         <v>40.442704486427402</v>
       </c>
       <c r="W65" s="8">
-        <f t="array" ref="W65">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R65)*1000</f>
+        <f t="array" ref="W65">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N65,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U65,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S65,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T65,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P65,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q65,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R65)*1000</f>
         <v>275.208442192635</v>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
         <v>$40B</v>
       </c>
       <c r="K66" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R66),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R66),"$#.0"),"T")</f>
         <v>$2.4T</v>
       </c>
       <c r="L66" s="8" t="str">
@@ -17837,7 +17837,7 @@
         <v>275k</v>
       </c>
       <c r="M66" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R66),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R66),"$#.##")</f>
         <v>-$19.85</v>
       </c>
       <c r="N66" s="8">
@@ -17866,11 +17866,11 @@
         <v>65</v>
       </c>
       <c r="V66" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R66)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R66)</f>
         <v>40.442704486427402</v>
       </c>
       <c r="W66" s="8">
-        <f t="array" ref="W66">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R66)*1000</f>
+        <f t="array" ref="W66">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N66,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U66,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S66,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T66,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P66,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q66,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R66)*1000</f>
         <v>275.208442192635</v>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
         <v>$40B</v>
       </c>
       <c r="K67" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R67),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R67),"$#.0"),"T")</f>
         <v>$1.5T</v>
       </c>
       <c r="L67" s="8" t="str">
@@ -17910,7 +17910,7 @@
         <v>275k</v>
       </c>
       <c r="M67" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R67),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R67),"$#.##")</f>
         <v>-$19.85</v>
       </c>
       <c r="N67" s="8">
@@ -17939,11 +17939,11 @@
         <v>65</v>
       </c>
       <c r="V67" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R67)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R67)</f>
         <v>40.442704486427402</v>
       </c>
       <c r="W67" s="8">
-        <f t="array" ref="W67">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R67)*1000</f>
+        <f t="array" ref="W67">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N67,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U67,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S67,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T67,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P67,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q67,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R67)*1000</f>
         <v>275.208442192635</v>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
         <v>$40B</v>
       </c>
       <c r="K68" s="8" t="str">
-        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R68),"$#.0"),"T")</f>
+        <f>_xlfn.CONCAT(TEXT(SUMIFS(raw_output!$N$2:$N$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R68),"$#.0"),"T")</f>
         <v>$.9T</v>
       </c>
       <c r="L68" s="8" t="str">
@@ -17983,7 +17983,7 @@
         <v>275k</v>
       </c>
       <c r="M68" s="8" t="str">
-        <f>TEXT(SUMIFS(raw_output!$L$2:$L$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R68),"$#.##")</f>
+        <f>TEXT(SUMIFS(raw_output!$L$2:$L$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R68),"$#.##")</f>
         <v>-$19.85</v>
       </c>
       <c r="N68" s="8">
@@ -18012,11 +18012,11 @@
         <v>65</v>
       </c>
       <c r="V68" s="8">
-        <f>SUMIFS(raw_output!$K$2:$K$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R68)</f>
+        <f>SUMIFS(raw_output!$K$2:$K$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R68)</f>
         <v>40.442704486427402</v>
       </c>
       <c r="W68" s="8">
-        <f t="array" ref="W68">SUMIFS(raw_output!$J$2:$J$348,raw_output!$M$2:$M$348,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$348,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$348,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$348,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$348,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$348,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$348,'Overall Output. Labeled'!$R68)*1000</f>
+        <f t="array" ref="W68">SUMIFS(raw_output!$J$2:$J$204,raw_output!$M$2:$M$204,'Overall Output. Labeled'!$N68,raw_output!$A$2:$A$204,'Overall Output. Labeled'!$U68,raw_output!$B$2:$B$204,'Overall Output. Labeled'!$S68,raw_output!$C$2:$C$204,'Overall Output. Labeled'!$T68,raw_output!$D$2:$D$204,'Overall Output. Labeled'!$P68,raw_output!$E$2:$E$204,'Overall Output. Labeled'!$Q68,raw_output!$F$2:$F$204,'Overall Output. Labeled'!$R68)*1000</f>
         <v>275.208442192635</v>
       </c>
     </row>
